--- a/831MarketingAnalytics/Project/831MarketingProject/output/df_cluster.xlsx
+++ b/831MarketingAnalytics/Project/831MarketingProject/output/df_cluster.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z213"/>
+  <dimension ref="A1:AA213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,20 +561,23 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>Activity_Diversity</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Missed_Periods</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
           <t>Cluster</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Cluster Name</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1233</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1233</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>44785</v>
@@ -654,19 +657,18 @@
         <v>33</v>
       </c>
       <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.6990418936689835</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1</v>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1280</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1280</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>44804</v>
@@ -746,19 +748,18 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1.333393796481044</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1295</t>
-        </is>
+      <c r="A4" t="n">
+        <v>1295</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>44812</v>
@@ -840,17 +841,16 @@
       <c r="Y4" t="n">
         <v>2</v>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z4" t="n">
+        <v>0.5994529112934757</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1366</t>
-        </is>
+      <c r="A5" t="n">
+        <v>1366</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>44819</v>
@@ -930,19 +930,18 @@
         <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.8667127028859731</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1372</t>
-        </is>
+      <c r="A6" t="n">
+        <v>1372</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>44820</v>
@@ -1022,19 +1021,18 @@
         <v>34</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.8743718592964846</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1413</t>
-        </is>
+      <c r="A7" t="n">
+        <v>1413</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>44827</v>
@@ -1114,19 +1112,18 @@
         <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1.100050632209022</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1416</t>
-        </is>
+      <c r="A8" t="n">
+        <v>1416</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>44833</v>
@@ -1206,19 +1203,18 @@
         <v>34</v>
       </c>
       <c r="Y8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.300061984635324</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1461</t>
-        </is>
+      <c r="A9" t="n">
+        <v>1461</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>44819</v>
@@ -1298,19 +1294,18 @@
         <v>34</v>
       </c>
       <c r="Y9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.8667831639807559</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1463</t>
-        </is>
+      <c r="A10" t="n">
+        <v>1463</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>44832</v>
@@ -1390,19 +1385,18 @@
         <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.266731328806983</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1469</t>
-        </is>
+      <c r="A11" t="n">
+        <v>1469</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>44820</v>
@@ -1482,19 +1476,18 @@
         <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.8665996442657153</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>1478</t>
-        </is>
+      <c r="A12" t="n">
+        <v>1478</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>44825</v>
@@ -1574,19 +1567,18 @@
         <v>33</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1.033445761338584</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>1480</t>
-        </is>
+      <c r="A13" t="n">
+        <v>1480</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>44820</v>
@@ -1666,19 +1658,18 @@
         <v>34</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.8666200118894416</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1602</t>
-        </is>
+      <c r="A14" t="n">
+        <v>1602</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>44846</v>
@@ -1758,19 +1749,18 @@
         <v>17</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.7333908541846412</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1702</t>
-        </is>
+      <c r="A15" t="n">
+        <v>1702</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>44953</v>
@@ -1850,19 +1840,18 @@
         <v>38</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.300066239788034</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>1713</t>
-        </is>
+      <c r="A16" t="n">
+        <v>1713</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>44953</v>
@@ -1942,19 +1931,18 @@
         <v>38</v>
       </c>
       <c r="Y16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.300084093408373</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>1717</t>
-        </is>
+      <c r="A17" t="n">
+        <v>1717</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>44959</v>
@@ -2034,19 +2022,18 @@
         <v>39</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4667192786315049</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1722</t>
-        </is>
+      <c r="A18" t="n">
+        <v>1722</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>44958</v>
@@ -2126,19 +2113,18 @@
         <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.4998617054162686</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1787</t>
-        </is>
+      <c r="A19" t="n">
+        <v>1787</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>44991</v>
@@ -2218,19 +2204,18 @@
         <v>40</v>
       </c>
       <c r="Y19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.5665865993940642</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1804</t>
-        </is>
+      <c r="A20" t="n">
+        <v>1804</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>44980</v>
@@ -2310,19 +2295,18 @@
         <v>39</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.19994806543755</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1831</t>
-        </is>
+      <c r="A21" t="n">
+        <v>1831</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>44985</v>
@@ -2404,17 +2388,16 @@
       <c r="Y21" t="n">
         <v>2</v>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z21" t="n">
+        <v>0.3664921465968582</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1916</t>
-        </is>
+      <c r="A22" t="n">
+        <v>1916</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>44995</v>
@@ -2494,19 +2477,18 @@
         <v>31</v>
       </c>
       <c r="Y22" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.7000057138141003</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>1937</t>
-        </is>
+      <c r="A23" t="n">
+        <v>1937</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>44999</v>
@@ -2586,19 +2568,18 @@
         <v>40</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.8333924895293556</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>1944</t>
-        </is>
+      <c r="A24" t="n">
+        <v>1944</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>45000</v>
@@ -2678,19 +2659,18 @@
         <v>40</v>
       </c>
       <c r="Y24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.8666162553561989</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
+      <c r="A25" t="n">
+        <v>1954</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>45006</v>
@@ -2770,19 +2750,18 @@
         <v>40</v>
       </c>
       <c r="Y25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.066582518144525</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
+      <c r="A26" t="n">
+        <v>1957</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>44998</v>
@@ -2862,19 +2841,18 @@
         <v>40</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.7999667891317443</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="A27" t="n">
+        <v>1995</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>45016</v>
@@ -2956,17 +2934,16 @@
       <c r="Y27" t="n">
         <v>1</v>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+      <c r="Z27" t="n">
+        <v>0.4011159330440179</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>11011</t>
-        </is>
+      <c r="A28" t="n">
+        <v>11011</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>45001</v>
@@ -3046,19 +3023,18 @@
         <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8999039207288142</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>11020</t>
-        </is>
+      <c r="A29" t="n">
+        <v>11020</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>45049</v>
@@ -3140,17 +3116,16 @@
       <c r="Y29" t="n">
         <v>1</v>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+      <c r="Z29" t="n">
+        <v>0.4983592211769867</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>11036</t>
-        </is>
+      <c r="A30" t="n">
+        <v>11036</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>45005</v>
@@ -3230,19 +3205,18 @@
         <v>28</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.033309580321792</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>11244</t>
-        </is>
+      <c r="A31" t="n">
+        <v>11244</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>45034</v>
@@ -3322,19 +3296,18 @@
         <v>26</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.9999566264015094</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>11247</t>
-        </is>
+      <c r="A32" t="n">
+        <v>11247</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>45030</v>
@@ -3414,19 +3387,18 @@
         <v>30</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.867066841743263</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>11248</t>
-        </is>
+      <c r="A33" t="n">
+        <v>11248</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>45031</v>
@@ -3506,19 +3478,18 @@
         <v>41</v>
       </c>
       <c r="Y33" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.8997972777295118</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>11250</t>
-        </is>
+      <c r="A34" t="n">
+        <v>11250</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>45057</v>
@@ -3598,19 +3569,18 @@
         <v>42</v>
       </c>
       <c r="Y34" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.766688350966092</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>11272</t>
-        </is>
+      <c r="A35" t="n">
+        <v>11272</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>45033</v>
@@ -3690,19 +3660,18 @@
         <v>41</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.9667204021967812</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>11274</t>
-        </is>
+      <c r="A36" t="n">
+        <v>11274</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>45035</v>
@@ -3784,17 +3753,16 @@
       <c r="Y36" t="n">
         <v>2</v>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z36" t="n">
+        <v>1.033059171125128</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>11332</t>
-        </is>
+      <c r="A37" t="n">
+        <v>11332</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>45034</v>
@@ -3874,19 +3842,18 @@
         <v>31</v>
       </c>
       <c r="Y37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.9999357140561216</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>11345</t>
-        </is>
+      <c r="A38" t="n">
+        <v>11345</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>45040</v>
@@ -3966,19 +3933,18 @@
         <v>41</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.20003134585675</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>11392</t>
-        </is>
+      <c r="A39" t="n">
+        <v>11392</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>45042</v>
@@ -4058,19 +4024,18 @@
         <v>41</v>
       </c>
       <c r="Y39" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.266679409172479</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>11565</t>
-        </is>
+      <c r="A40" t="n">
+        <v>11565</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>45044</v>
@@ -4150,19 +4115,18 @@
         <v>37</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.333231800182759</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>11681</t>
-        </is>
+      <c r="A41" t="n">
+        <v>11681</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>45092</v>
@@ -4244,17 +4208,16 @@
       <c r="Y41" t="n">
         <v>2</v>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z41" t="n">
+        <v>0.9337576469134277</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>11711</t>
-        </is>
+      <c r="A42" t="n">
+        <v>11711</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>45055</v>
@@ -4334,19 +4297,18 @@
         <v>42</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.7000475076415604</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>11747</t>
-        </is>
+      <c r="A43" t="n">
+        <v>11747</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>45058</v>
@@ -4428,17 +4390,16 @@
       <c r="Y43" t="n">
         <v>1</v>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+      <c r="Z43" t="n">
+        <v>0.7998489742836767</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>11788</t>
-        </is>
+      <c r="A44" t="n">
+        <v>11788</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>45061</v>
@@ -4518,19 +4479,18 @@
         <v>42</v>
       </c>
       <c r="Y44" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.899989543159073</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>11807</t>
-        </is>
+      <c r="A45" t="n">
+        <v>11807</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>45061</v>
@@ -4610,19 +4570,18 @@
         <v>42</v>
       </c>
       <c r="Y45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.9000627719214727</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>11872</t>
-        </is>
+      <c r="A46" t="n">
+        <v>11872</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>45065</v>
@@ -4704,17 +4663,16 @@
       <c r="Y46" t="n">
         <v>2</v>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z46" t="n">
+        <v>1.033413571148323</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>12007</t>
-        </is>
+      <c r="A47" t="n">
+        <v>12007</v>
       </c>
       <c r="B47" s="2" t="n">
         <v>45075</v>
@@ -4794,19 +4752,18 @@
         <v>3</v>
       </c>
       <c r="Y47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.3668913595377745</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>12020</t>
-        </is>
+      <c r="A48" t="n">
+        <v>12020</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>45084</v>
@@ -4886,19 +4843,18 @@
         <v>43</v>
       </c>
       <c r="Y48" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.660130718954246</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>12082</t>
-        </is>
+      <c r="A49" t="n">
+        <v>12082</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>45077</v>
@@ -4978,19 +4934,18 @@
         <v>43</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.4299917149958574</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>12088</t>
-        </is>
+      <c r="A50" t="n">
+        <v>12088</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>45077</v>
@@ -5070,19 +5025,18 @@
         <v>33</v>
       </c>
       <c r="Y50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.4333393943067243</v>
+      </c>
+      <c r="AA50" t="n">
         <v>1</v>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
-      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>12106</t>
-        </is>
+      <c r="A51" t="n">
+        <v>12106</v>
       </c>
       <c r="B51" s="2" t="n">
         <v>45085</v>
@@ -5162,19 +5116,18 @@
         <v>26</v>
       </c>
       <c r="Y51" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.7000814995925033</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>12112</t>
-        </is>
+      <c r="A52" t="n">
+        <v>12112</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>45086</v>
@@ -5254,19 +5207,18 @@
         <v>31</v>
       </c>
       <c r="Y52" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.7333155068297792</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>12121</t>
-        </is>
+      <c r="A53" t="n">
+        <v>12121</v>
       </c>
       <c r="B53" s="2" t="n">
         <v>45089</v>
@@ -5346,19 +5298,18 @@
         <v>43</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.8333709301451222</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>12263</t>
-        </is>
+      <c r="A54" t="n">
+        <v>12263</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>45089</v>
@@ -5438,19 +5389,18 @@
         <v>43</v>
       </c>
       <c r="Y54" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.8333033950062863</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>12279</t>
-        </is>
+      <c r="A55" t="n">
+        <v>12279</v>
       </c>
       <c r="B55" s="2" t="n">
         <v>45092</v>
@@ -5530,19 +5480,18 @@
         <v>43</v>
       </c>
       <c r="Y55" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.9337576469134277</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>12318</t>
-        </is>
+      <c r="A56" t="n">
+        <v>12318</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>45092</v>
@@ -5622,19 +5571,18 @@
         <v>43</v>
       </c>
       <c r="Y56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.9333014894263769</v>
+      </c>
+      <c r="AA56" t="n">
         <v>1</v>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
-      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>12325</t>
-        </is>
+      <c r="A57" t="n">
+        <v>12325</v>
       </c>
       <c r="B57" s="2" t="n">
         <v>45098</v>
@@ -5714,19 +5662,18 @@
         <v>43</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.133441822620018</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>12429</t>
-        </is>
+      <c r="A58" t="n">
+        <v>12429</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>45112</v>
@@ -5808,17 +5755,16 @@
       <c r="Y58" t="n">
         <v>2</v>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z58" t="n">
+        <v>0.6000758150113708</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>12593</t>
-        </is>
+      <c r="A59" t="n">
+        <v>12593</v>
       </c>
       <c r="B59" s="2" t="n">
         <v>45100</v>
@@ -5898,19 +5844,18 @@
         <v>43</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.200062781207492</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>13031</t>
-        </is>
+      <c r="A60" t="n">
+        <v>13031</v>
       </c>
       <c r="B60" s="2" t="n">
         <v>45119</v>
@@ -5990,19 +5935,18 @@
         <v>44</v>
       </c>
       <c r="Y60" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.8332751396648046</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>13141</t>
-        </is>
+      <c r="A61" t="n">
+        <v>13141</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>45121</v>
@@ -6082,19 +6026,18 @@
         <v>44</v>
       </c>
       <c r="Y61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.9011022195379734</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>13178</t>
-        </is>
+      <c r="A62" t="n">
+        <v>13178</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>45132</v>
@@ -6174,19 +6117,18 @@
         <v>44</v>
       </c>
       <c r="Y62" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.266776581190584</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>13203</t>
-        </is>
+      <c r="A63" t="n">
+        <v>13203</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>45180</v>
@@ -6266,19 +6208,18 @@
         <v>46</v>
       </c>
       <c r="Y63" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.8666327741060833</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>13356</t>
-        </is>
+      <c r="A64" t="n">
+        <v>13356</v>
       </c>
       <c r="B64" s="2" t="n">
         <v>45138</v>
@@ -6358,19 +6299,18 @@
         <v>45</v>
       </c>
       <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.4665731181717963</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>13385</t>
-        </is>
+      <c r="A65" t="n">
+        <v>13385</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>45126</v>
@@ -6450,19 +6390,18 @@
         <v>44</v>
       </c>
       <c r="Y65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.067197610751618</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>13443</t>
-        </is>
+      <c r="A66" t="n">
+        <v>13443</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>45142</v>
@@ -6542,19 +6481,18 @@
         <v>45</v>
       </c>
       <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
         <v>1</v>
       </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
-      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>13535</t>
-        </is>
+      <c r="A67" t="n">
+        <v>13535</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>45135</v>
@@ -6634,19 +6572,18 @@
         <v>37</v>
       </c>
       <c r="Y67" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.3667059799938848</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>13580</t>
-        </is>
+      <c r="A68" t="n">
+        <v>13580</v>
       </c>
       <c r="B68" s="2" t="n">
         <v>45142</v>
@@ -6726,19 +6663,18 @@
         <v>37</v>
       </c>
       <c r="Y68" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.6000687757909215</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>13616</t>
-        </is>
+      <c r="A69" t="n">
+        <v>13616</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>45142</v>
@@ -6820,17 +6756,16 @@
       <c r="Y69" t="n">
         <v>0</v>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>13684</t>
-        </is>
+      <c r="A70" t="n">
+        <v>13684</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>45160</v>
@@ -6910,19 +6845,18 @@
         <v>45</v>
       </c>
       <c r="Y70" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1.199961488264618</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>13710</t>
-        </is>
+      <c r="A71" t="n">
+        <v>13710</v>
       </c>
       <c r="B71" s="2" t="n">
         <v>45156</v>
@@ -7002,19 +6936,18 @@
         <v>45</v>
       </c>
       <c r="Y71" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.066640214813654</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>14038</t>
-        </is>
+      <c r="A72" t="n">
+        <v>14038</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>45168</v>
@@ -7094,19 +7027,18 @@
         <v>34</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.4667352352081409</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>14063</t>
-        </is>
+      <c r="A73" t="n">
+        <v>14063</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>45168</v>
@@ -7186,19 +7118,18 @@
         <v>46</v>
       </c>
       <c r="Y73" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.4666176568869869</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>14115</t>
-        </is>
+      <c r="A74" t="n">
+        <v>14115</v>
       </c>
       <c r="B74" s="2" t="n">
         <v>45183</v>
@@ -7278,19 +7209,18 @@
         <v>46</v>
       </c>
       <c r="Y74" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.9666474371300975</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>14127</t>
-        </is>
+      <c r="A75" t="n">
+        <v>14127</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>45197</v>
@@ -7370,19 +7300,18 @@
         <v>47</v>
       </c>
       <c r="Y75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.4332390826264536</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>14214</t>
-        </is>
+      <c r="A76" t="n">
+        <v>14214</v>
       </c>
       <c r="B76" s="2" t="n">
         <v>45184</v>
@@ -7462,19 +7391,18 @@
         <v>46</v>
       </c>
       <c r="Y76" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.999966949068515</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>14241</t>
-        </is>
+      <c r="A77" t="n">
+        <v>14241</v>
       </c>
       <c r="B77" s="2" t="n">
         <v>45181</v>
@@ -7556,17 +7484,16 @@
       <c r="Y77" t="n">
         <v>2</v>
       </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z77" t="n">
+        <v>0.899951152360229</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>14251</t>
-        </is>
+      <c r="A78" t="n">
+        <v>14251</v>
       </c>
       <c r="B78" s="2" t="n">
         <v>45183</v>
@@ -7646,19 +7573,18 @@
         <v>46</v>
       </c>
       <c r="Y78" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.9659666908037661</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>14256</t>
-        </is>
+      <c r="A79" t="n">
+        <v>14256</v>
       </c>
       <c r="B79" s="2" t="n">
         <v>45196</v>
@@ -7738,19 +7664,18 @@
         <v>47</v>
       </c>
       <c r="Y79" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.4002519949601009</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>14327</t>
-        </is>
+      <c r="A80" t="n">
+        <v>14327</v>
       </c>
       <c r="B80" s="2" t="n">
         <v>45210</v>
@@ -7830,19 +7755,18 @@
         <v>47</v>
       </c>
       <c r="Y80" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>14380</t>
-        </is>
+      <c r="A81" t="n">
+        <v>14380</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>45194</v>
@@ -7922,19 +7846,18 @@
         <v>46</v>
       </c>
       <c r="Y81" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.332151000760071</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>14421</t>
-        </is>
+      <c r="A82" t="n">
+        <v>14421</v>
       </c>
       <c r="B82" s="2" t="n">
         <v>45202</v>
@@ -8016,17 +7939,16 @@
       <c r="Y82" t="n">
         <v>0</v>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>14427</t>
-        </is>
+      <c r="A83" t="n">
+        <v>14427</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>45197</v>
@@ -8106,19 +8028,18 @@
         <v>47</v>
       </c>
       <c r="Y83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.4333386134431603</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>14496</t>
-        </is>
+      <c r="A84" t="n">
+        <v>14496</v>
       </c>
       <c r="B84" s="2" t="n">
         <v>45205</v>
@@ -8198,19 +8119,18 @@
         <v>42</v>
       </c>
       <c r="Y84" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.7000210856781379</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>14506</t>
-        </is>
+      <c r="A85" t="n">
+        <v>14506</v>
       </c>
       <c r="B85" s="2" t="n">
         <v>45203</v>
@@ -8290,19 +8210,18 @@
         <v>47</v>
       </c>
       <c r="Y85" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.6339653751030507</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>14654</t>
-        </is>
+      <c r="A86" t="n">
+        <v>14654</v>
       </c>
       <c r="B86" s="2" t="n">
         <v>45222</v>
@@ -8382,19 +8301,18 @@
         <v>35</v>
       </c>
       <c r="Y86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.266623134138005</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>14670</t>
-        </is>
+      <c r="A87" t="n">
+        <v>14670</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>45217</v>
@@ -8474,19 +8392,18 @@
         <v>47</v>
       </c>
       <c r="Y87" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>14733</t>
-        </is>
+      <c r="A88" t="n">
+        <v>14733</v>
       </c>
       <c r="B88" s="2" t="n">
         <v>45222</v>
@@ -8568,17 +8485,16 @@
       <c r="Y88" t="n">
         <v>1</v>
       </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+      <c r="Z88" t="n">
+        <v>1.262910798122066</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>14747</t>
-        </is>
+      <c r="A89" t="n">
+        <v>14747</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>45229</v>
@@ -8658,19 +8574,18 @@
         <v>48</v>
       </c>
       <c r="Y89" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>14800</t>
-        </is>
+      <c r="A90" t="n">
+        <v>14800</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>45231</v>
@@ -8750,19 +8665,18 @@
         <v>48</v>
       </c>
       <c r="Y90" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.5666770605966125</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>14818</t>
-        </is>
+      <c r="A91" t="n">
+        <v>14818</v>
       </c>
       <c r="B91" s="2" t="n">
         <v>45236</v>
@@ -8842,19 +8756,18 @@
         <v>48</v>
       </c>
       <c r="Y91" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.7332327118896291</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>14841</t>
-        </is>
+      <c r="A92" t="n">
+        <v>14841</v>
       </c>
       <c r="B92" s="2" t="n">
         <v>45232</v>
@@ -8934,19 +8847,18 @@
         <v>25</v>
       </c>
       <c r="Y92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0.5999912307624857</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>14847</t>
-        </is>
+      <c r="A93" t="n">
+        <v>14847</v>
       </c>
       <c r="B93" s="2" t="n">
         <v>45233</v>
@@ -9026,19 +8938,18 @@
         <v>48</v>
       </c>
       <c r="Y93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.6333664075157941</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>14897</t>
-        </is>
+      <c r="A94" t="n">
+        <v>14897</v>
       </c>
       <c r="B94" s="2" t="n">
         <v>45243</v>
@@ -9118,19 +9029,18 @@
         <v>48</v>
       </c>
       <c r="Y94" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0.9667232208841199</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>14910</t>
-        </is>
+      <c r="A95" t="n">
+        <v>14910</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>45250</v>
@@ -9212,17 +9122,16 @@
       <c r="Y95" t="n">
         <v>2</v>
       </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z95" t="n">
+        <v>1.200047519790912</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>14913</t>
-        </is>
+      <c r="A96" t="n">
+        <v>14913</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>45250</v>
@@ -9302,19 +9211,18 @@
         <v>48</v>
       </c>
       <c r="Y96" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.200047519790912</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>14943</t>
-        </is>
+      <c r="A97" t="n">
+        <v>14943</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>45254</v>
@@ -9394,19 +9302,18 @@
         <v>48</v>
       </c>
       <c r="Y97" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.33385047997673</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>15105</t>
-        </is>
+      <c r="A98" t="n">
+        <v>15105</v>
       </c>
       <c r="B98" s="2" t="n">
         <v>45254</v>
@@ -9486,19 +9393,18 @@
         <v>48</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.33522929257021</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>15113</t>
-        </is>
+      <c r="A99" t="n">
+        <v>15113</v>
       </c>
       <c r="B99" s="2" t="n">
         <v>45257</v>
@@ -9578,19 +9484,18 @@
         <v>25</v>
       </c>
       <c r="Y99" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0.4332906957343869</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>15138</t>
-        </is>
+      <c r="A100" t="n">
+        <v>15138</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>45257</v>
@@ -9672,17 +9577,16 @@
       <c r="Y100" t="n">
         <v>1</v>
       </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+      <c r="Z100" t="n">
+        <v>0.4670318095639345</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>15143</t>
-        </is>
+      <c r="A101" t="n">
+        <v>15143</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>45260</v>
@@ -9764,17 +9668,16 @@
       <c r="Y101" t="n">
         <v>2</v>
       </c>
-      <c r="Z101" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z101" t="n">
+        <v>0.5333309272025115</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>15300</t>
-        </is>
+      <c r="A102" t="n">
+        <v>15300</v>
       </c>
       <c r="B102" s="2" t="n">
         <v>45275</v>
@@ -9854,19 +9757,18 @@
         <v>49</v>
       </c>
       <c r="Y102" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.033571128829207</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>15353</t>
-        </is>
+      <c r="A103" t="n">
+        <v>15353</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>45271</v>
@@ -9946,19 +9848,18 @@
         <v>49</v>
       </c>
       <c r="Y103" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0.899987923898605</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>15360</t>
-        </is>
+      <c r="A104" t="n">
+        <v>15360</v>
       </c>
       <c r="B104" s="2" t="n">
         <v>45359</v>
@@ -10038,19 +9939,18 @@
         <v>52</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0.8333048091733701</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>15439</t>
-        </is>
+      <c r="A105" t="n">
+        <v>15439</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>45280</v>
@@ -10130,19 +10030,18 @@
         <v>49</v>
       </c>
       <c r="Y105" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.200054068667207</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>15477</t>
-        </is>
+      <c r="A106" t="n">
+        <v>15477</v>
       </c>
       <c r="B106" s="2" t="n">
         <v>45281</v>
@@ -10222,19 +10121,18 @@
         <v>49</v>
       </c>
       <c r="Y106" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z106" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.233371029094274</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>15515</t>
-        </is>
+      <c r="A107" t="n">
+        <v>15515</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>45288</v>
@@ -10314,19 +10212,18 @@
         <v>50</v>
       </c>
       <c r="Y107" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z107" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.4665056565399759</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>15527</t>
-        </is>
+      <c r="A108" t="n">
+        <v>15527</v>
       </c>
       <c r="B108" s="2" t="n">
         <v>45282</v>
@@ -10406,19 +10303,18 @@
         <v>49</v>
       </c>
       <c r="Y108" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z108" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.266656872107545</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>15531</t>
-        </is>
+      <c r="A109" t="n">
+        <v>15531</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>45288</v>
@@ -10498,19 +10394,18 @@
         <v>45</v>
       </c>
       <c r="Y109" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z109" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0.4666066415973731</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>15574</t>
-        </is>
+      <c r="A110" t="n">
+        <v>15574</v>
       </c>
       <c r="B110" s="2" t="n">
         <v>45294</v>
@@ -10590,19 +10485,18 @@
         <v>50</v>
       </c>
       <c r="Y110" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z110" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.666562961810687</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>15583</t>
-        </is>
+      <c r="A111" t="n">
+        <v>15583</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>45280</v>
@@ -10682,19 +10576,18 @@
         <v>49</v>
       </c>
       <c r="Y111" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z111" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.199988604637911</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>15592</t>
-        </is>
+      <c r="A112" t="n">
+        <v>15592</v>
       </c>
       <c r="B112" s="2" t="n">
         <v>45281</v>
@@ -10774,19 +10667,18 @@
         <v>49</v>
       </c>
       <c r="Y112" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z112" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.233328172083992</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>15641</t>
-        </is>
+      <c r="A113" t="n">
+        <v>15641</v>
       </c>
       <c r="B113" s="2" t="n">
         <v>45302</v>
@@ -10866,19 +10758,18 @@
         <v>50</v>
       </c>
       <c r="Y113" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z113" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.9332977027839551</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>15734</t>
-        </is>
+      <c r="A114" t="n">
+        <v>15734</v>
       </c>
       <c r="B114" s="2" t="n">
         <v>45302</v>
@@ -10958,19 +10849,18 @@
         <v>50</v>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z114" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.9333333333333336</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>15744</t>
-        </is>
+      <c r="A115" t="n">
+        <v>15744</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>45301</v>
@@ -11050,19 +10940,18 @@
         <v>50</v>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.9000208312776152</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>15806</t>
-        </is>
+      <c r="A116" t="n">
+        <v>15806</v>
       </c>
       <c r="B116" s="2" t="n">
         <v>45309</v>
@@ -11142,19 +11031,18 @@
         <v>50</v>
       </c>
       <c r="Y116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z116" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.166670393809961</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>15837</t>
-        </is>
+      <c r="A117" t="n">
+        <v>15837</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>45309</v>
@@ -11234,19 +11122,18 @@
         <v>50</v>
       </c>
       <c r="Y117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.166681863773137</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>15880</t>
-        </is>
+      <c r="A118" t="n">
+        <v>15880</v>
       </c>
       <c r="B118" s="2" t="n">
         <v>45307</v>
@@ -11326,19 +11213,18 @@
         <v>50</v>
       </c>
       <c r="Y118" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z118" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.100035599857602</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>15935</t>
-        </is>
+      <c r="A119" t="n">
+        <v>15935</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>45369</v>
@@ -11420,17 +11306,16 @@
       <c r="Y119" t="n">
         <v>2</v>
       </c>
-      <c r="Z119" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z119" t="n">
+        <v>1.166676157394225</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>15951</t>
-        </is>
+      <c r="A120" t="n">
+        <v>15951</v>
       </c>
       <c r="B120" s="2" t="n">
         <v>45334</v>
@@ -11510,19 +11395,18 @@
         <v>51</v>
       </c>
       <c r="Y120" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z120" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>15955</t>
-        </is>
+      <c r="A121" t="n">
+        <v>15955</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>45314</v>
@@ -11602,19 +11486,18 @@
         <v>50</v>
       </c>
       <c r="Y121" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z121" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.333358898646317</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>15989</t>
-        </is>
+      <c r="A122" t="n">
+        <v>15989</v>
       </c>
       <c r="B122" s="2" t="n">
         <v>45310</v>
@@ -11694,19 +11577,18 @@
         <v>50</v>
       </c>
       <c r="Y122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z122" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.199949713998366</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>15992</t>
-        </is>
+      <c r="A123" t="n">
+        <v>15992</v>
       </c>
       <c r="B123" s="2" t="n">
         <v>45316</v>
@@ -11786,19 +11668,18 @@
         <v>51</v>
       </c>
       <c r="Y123" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z123" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>0.3999690785405079</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>16138</t>
-        </is>
+      <c r="A124" t="n">
+        <v>16138</v>
       </c>
       <c r="B124" s="2" t="n">
         <v>45334</v>
@@ -11878,19 +11759,18 @@
         <v>51</v>
       </c>
       <c r="Y124" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z124" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>16248</t>
-        </is>
+      <c r="A125" t="n">
+        <v>16248</v>
       </c>
       <c r="B125" s="2" t="n">
         <v>45349</v>
@@ -11970,19 +11850,18 @@
         <v>52</v>
       </c>
       <c r="Y125" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z125" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>0.4999999999999991</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>16277</t>
-        </is>
+      <c r="A126" t="n">
+        <v>16277</v>
       </c>
       <c r="B126" s="2" t="n">
         <v>45349</v>
@@ -12062,19 +11941,18 @@
         <v>52</v>
       </c>
       <c r="Y126" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z126" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0.4999639421343369</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>16350</t>
-        </is>
+      <c r="A127" t="n">
+        <v>16350</v>
       </c>
       <c r="B127" s="2" t="n">
         <v>45355</v>
@@ -12154,19 +12032,18 @@
         <v>52</v>
       </c>
       <c r="Y127" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z127" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0.6999949655137687</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>16377</t>
-        </is>
+      <c r="A128" t="n">
+        <v>16377</v>
       </c>
       <c r="B128" s="2" t="n">
         <v>45351</v>
@@ -12246,19 +12123,18 @@
         <v>46</v>
       </c>
       <c r="Y128" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z128" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>0.5666676990739301</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>16436</t>
-        </is>
+      <c r="A129" t="n">
+        <v>16436</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>45358</v>
@@ -12338,19 +12214,18 @@
         <v>52</v>
       </c>
       <c r="Y129" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z129" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>0.8005759539236861</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>16499</t>
-        </is>
+      <c r="A130" t="n">
+        <v>16499</v>
       </c>
       <c r="B130" s="2" t="n">
         <v>45359</v>
@@ -12430,19 +12305,18 @@
         <v>28</v>
       </c>
       <c r="Y130" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z130" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>0.8330091123169856</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>16562</t>
-        </is>
+      <c r="A131" t="n">
+        <v>16562</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>45366</v>
@@ -12522,19 +12396,18 @@
         <v>28</v>
       </c>
       <c r="Y131" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z131" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.066653138184985</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>16613</t>
-        </is>
+      <c r="A132" t="n">
+        <v>16613</v>
       </c>
       <c r="B132" s="2" t="n">
         <v>45373</v>
@@ -12614,19 +12487,18 @@
         <v>52</v>
       </c>
       <c r="Y132" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z132" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.300081887888036</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>16644</t>
-        </is>
+      <c r="A133" t="n">
+        <v>16644</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>45376</v>
@@ -12708,17 +12580,16 @@
       <c r="Y133" t="n">
         <v>0</v>
       </c>
-      <c r="Z133" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>16669</t>
-        </is>
+      <c r="A134" t="n">
+        <v>16669</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>45379</v>
@@ -12800,17 +12671,16 @@
       <c r="Y134" t="n">
         <v>2</v>
       </c>
-      <c r="Z134" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+      <c r="Z134" t="n">
+        <v>0.4994582881906826</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>16678</t>
-        </is>
+      <c r="A135" t="n">
+        <v>16678</v>
       </c>
       <c r="B135" s="2" t="n">
         <v>45411</v>
@@ -12890,19 +12760,18 @@
         <v>54</v>
       </c>
       <c r="Y135" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z135" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>16871</t>
-        </is>
+      <c r="A136" t="n">
+        <v>16871</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>45398</v>
@@ -12982,19 +12851,18 @@
         <v>29</v>
       </c>
       <c r="Y136" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z136" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.133368098559416</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>16892</t>
-        </is>
+      <c r="A137" t="n">
+        <v>16892</v>
       </c>
       <c r="B137" s="2" t="n">
         <v>45400</v>
@@ -13074,19 +12942,18 @@
         <v>29</v>
       </c>
       <c r="Y137" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z137" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.199987880571691</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>16933</t>
-        </is>
+      <c r="A138" t="n">
+        <v>16933</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>45411</v>
@@ -13168,17 +13035,16 @@
       <c r="Y138" t="n">
         <v>0</v>
       </c>
-      <c r="Z138" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z138" t="n">
+        <v>0.5652173913043477</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>16937</t>
-        </is>
+      <c r="A139" t="n">
+        <v>16937</v>
       </c>
       <c r="B139" s="2" t="n">
         <v>45411</v>
@@ -13258,19 +13124,18 @@
         <v>54</v>
       </c>
       <c r="Y139" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z139" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0.5666569319270032</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>16961</t>
-        </is>
+      <c r="A140" t="n">
+        <v>16961</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>45411</v>
@@ -13350,19 +13215,18 @@
         <v>54</v>
       </c>
       <c r="Y140" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z140" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0.5999459994599947</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>17016</t>
-        </is>
+      <c r="A141" t="n">
+        <v>17016</v>
       </c>
       <c r="B141" s="2" t="n">
         <v>45411</v>
@@ -13442,19 +13306,18 @@
         <v>54</v>
       </c>
       <c r="Y141" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z141" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0.5666938331975011</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>17026</t>
-        </is>
+      <c r="A142" t="n">
+        <v>17026</v>
       </c>
       <c r="B142" s="2" t="n">
         <v>45412</v>
@@ -13534,19 +13397,18 @@
         <v>54</v>
       </c>
       <c r="Y142" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z142" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0.5999901818003313</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>17128</t>
-        </is>
+      <c r="A143" t="n">
+        <v>17128</v>
       </c>
       <c r="B143" s="2" t="n">
         <v>45420</v>
@@ -13626,19 +13488,18 @@
         <v>54</v>
       </c>
       <c r="Y143" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z143" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0.866639573931085</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>17193</t>
-        </is>
+      <c r="A144" t="n">
+        <v>17193</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>45422</v>
@@ -13718,19 +13579,18 @@
         <v>54</v>
       </c>
       <c r="Y144" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z144" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>0.9341438703140827</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>17343</t>
-        </is>
+      <c r="A145" t="n">
+        <v>17343</v>
       </c>
       <c r="B145" s="2" t="n">
         <v>45439</v>
@@ -13810,19 +13670,18 @@
         <v>55</v>
       </c>
       <c r="Y145" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z145" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>17388</t>
-        </is>
+      <c r="A146" t="n">
+        <v>17388</v>
       </c>
       <c r="B146" s="2" t="n">
         <v>45441</v>
@@ -13902,19 +13761,18 @@
         <v>55</v>
       </c>
       <c r="Y146" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z146" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0.5999834999381246</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>17525</t>
-        </is>
+      <c r="A147" t="n">
+        <v>17525</v>
       </c>
       <c r="B147" s="2" t="n">
         <v>45450</v>
@@ -13996,17 +13854,16 @@
       <c r="Y147" t="n">
         <v>0</v>
       </c>
-      <c r="Z147" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>17684</t>
-        </is>
+      <c r="A148" t="n">
+        <v>17684</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>45475</v>
@@ -14086,19 +13943,18 @@
         <v>56</v>
       </c>
       <c r="Y148" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z148" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0.6999926666503709</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>17705</t>
-        </is>
+      <c r="A149" t="n">
+        <v>17705</v>
       </c>
       <c r="B149" s="2" t="n">
         <v>45471</v>
@@ -14178,19 +14034,18 @@
         <v>56</v>
       </c>
       <c r="Y149" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z149" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0.5666843534442396</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>17737</t>
-        </is>
+      <c r="A150" t="n">
+        <v>17737</v>
       </c>
       <c r="B150" s="2" t="n">
         <v>45471</v>
@@ -14270,19 +14125,18 @@
         <v>56</v>
       </c>
       <c r="Y150" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z150" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>0.5671129419842087</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>17745</t>
-        </is>
+      <c r="A151" t="n">
+        <v>17745</v>
       </c>
       <c r="B151" s="2" t="n">
         <v>45471</v>
@@ -14362,19 +14216,18 @@
         <v>56</v>
       </c>
       <c r="Y151" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z151" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>0.5667200732433053</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>17776</t>
-        </is>
+      <c r="A152" t="n">
+        <v>17776</v>
       </c>
       <c r="B152" s="2" t="n">
         <v>45482</v>
@@ -14454,19 +14307,18 @@
         <v>56</v>
       </c>
       <c r="Y152" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z152" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>17797</t>
-        </is>
+      <c r="A153" t="n">
+        <v>17797</v>
       </c>
       <c r="B153" s="2" t="n">
         <v>45484</v>
@@ -14548,17 +14400,16 @@
       <c r="Y153" t="n">
         <v>0</v>
       </c>
-      <c r="Z153" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>17926</t>
-        </is>
+      <c r="A154" t="n">
+        <v>17926</v>
       </c>
       <c r="B154" s="2" t="n">
         <v>45488</v>
@@ -14638,19 +14489,18 @@
         <v>56</v>
       </c>
       <c r="Y154" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z154" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.133347135736013</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>18048</t>
-        </is>
+      <c r="A155" t="n">
+        <v>18048</v>
       </c>
       <c r="B155" s="2" t="n">
         <v>45495</v>
@@ -14730,19 +14580,18 @@
         <v>57</v>
       </c>
       <c r="Y155" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z155" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0.3666696989864069</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>18063</t>
-        </is>
+      <c r="A156" t="n">
+        <v>18063</v>
       </c>
       <c r="B156" s="2" t="n">
         <v>45502</v>
@@ -14822,19 +14671,18 @@
         <v>57</v>
       </c>
       <c r="Y156" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z156" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>18111</t>
-        </is>
+      <c r="A157" t="n">
+        <v>18111</v>
       </c>
       <c r="B157" s="2" t="n">
         <v>45523</v>
@@ -14914,19 +14762,18 @@
         <v>57</v>
       </c>
       <c r="Y157" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z157" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.300006374976094</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>1215</t>
-        </is>
+      <c r="A158" t="n">
+        <v>1215</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>44804</v>
@@ -15006,19 +14853,18 @@
         <v>25</v>
       </c>
       <c r="Y158" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.333338307492575</v>
+      </c>
+      <c r="AA158" t="n">
         <v>1</v>
       </c>
-      <c r="Z158" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
-      </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>1865</t>
-        </is>
+      <c r="A159" t="n">
+        <v>1865</v>
       </c>
       <c r="B159" s="2" t="n">
         <v>45005</v>
@@ -15098,19 +14944,18 @@
         <v>40</v>
       </c>
       <c r="Y159" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z159" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.033368765501574</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>11169</t>
-        </is>
+      <c r="A160" t="n">
+        <v>11169</v>
       </c>
       <c r="B160" s="2" t="n">
         <v>45022</v>
@@ -15192,17 +15037,16 @@
       <c r="Y160" t="n">
         <v>1</v>
       </c>
-      <c r="Z160" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+      <c r="Z160" t="n">
+        <v>0.5837937384898702</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>15565</t>
-        </is>
+      <c r="A161" t="n">
+        <v>15565</v>
       </c>
       <c r="B161" s="2" t="n">
         <v>45288</v>
@@ -15282,19 +15126,18 @@
         <v>50</v>
       </c>
       <c r="Y161" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z161" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>0.4662853180793896</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>15998</t>
-        </is>
+      <c r="A162" t="n">
+        <v>15998</v>
       </c>
       <c r="B162" s="2" t="n">
         <v>45324</v>
@@ -15376,17 +15219,16 @@
       <c r="Y162" t="n">
         <v>0</v>
       </c>
-      <c r="Z162" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>17048</t>
-        </is>
+      <c r="A163" t="n">
+        <v>17048</v>
       </c>
       <c r="B163" s="2" t="n">
         <v>45422</v>
@@ -15466,19 +15308,18 @@
         <v>54</v>
       </c>
       <c r="Y163" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z163" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0.9333417777637036</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>1189</t>
-        </is>
+      <c r="A164" t="n">
+        <v>1189</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>44785</v>
@@ -15558,19 +15399,18 @@
         <v>33</v>
       </c>
       <c r="Y164" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z164" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>1361</t>
-        </is>
+      <c r="A165" t="n">
+        <v>1361</v>
       </c>
       <c r="B165" s="2" t="n">
         <v>44812</v>
@@ -15652,17 +15492,16 @@
       <c r="Y165" t="n">
         <v>0</v>
       </c>
-      <c r="Z165" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>1409</t>
-        </is>
+      <c r="A166" t="n">
+        <v>1409</v>
       </c>
       <c r="B166" s="2" t="n">
         <v>44819</v>
@@ -15742,19 +15581,18 @@
         <v>34</v>
       </c>
       <c r="Y166" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z166" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>1746</t>
-        </is>
+      <c r="A167" t="n">
+        <v>1746</v>
       </c>
       <c r="B167" s="2" t="n">
         <v>44971</v>
@@ -15836,17 +15674,16 @@
       <c r="Y167" t="n">
         <v>0</v>
       </c>
-      <c r="Z167" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>1820</t>
-        </is>
+      <c r="A168" t="n">
+        <v>1820</v>
       </c>
       <c r="B168" s="2" t="n">
         <v>44980</v>
@@ -15928,17 +15765,16 @@
       <c r="Y168" t="n">
         <v>0</v>
       </c>
-      <c r="Z168" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>11182</t>
-        </is>
+      <c r="A169" t="n">
+        <v>11182</v>
       </c>
       <c r="B169" s="2" t="n">
         <v>45030</v>
@@ -16020,17 +15856,16 @@
       <c r="Y169" t="n">
         <v>0</v>
       </c>
-      <c r="Z169" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>11556</t>
-        </is>
+      <c r="A170" t="n">
+        <v>11556</v>
       </c>
       <c r="B170" s="2" t="n">
         <v>45049</v>
@@ -16112,17 +15947,16 @@
       <c r="Y170" t="n">
         <v>0</v>
       </c>
-      <c r="Z170" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>11706</t>
-        </is>
+      <c r="A171" t="n">
+        <v>11706</v>
       </c>
       <c r="B171" s="2" t="n">
         <v>45054</v>
@@ -16202,19 +16036,18 @@
         <v>42</v>
       </c>
       <c r="Y171" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z171" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>11776</t>
-        </is>
+      <c r="A172" t="n">
+        <v>11776</v>
       </c>
       <c r="B172" s="2" t="n">
         <v>45058</v>
@@ -16294,19 +16127,18 @@
         <v>42</v>
       </c>
       <c r="Y172" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z172" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>11920</t>
-        </is>
+      <c r="A173" t="n">
+        <v>11920</v>
       </c>
       <c r="B173" s="2" t="n">
         <v>45070</v>
@@ -16386,19 +16218,18 @@
         <v>42</v>
       </c>
       <c r="Y173" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z173" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>12095</t>
-        </is>
+      <c r="A174" t="n">
+        <v>12095</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>45082</v>
@@ -16478,19 +16309,18 @@
         <v>43</v>
       </c>
       <c r="Y174" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z174" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>12186</t>
-        </is>
+      <c r="A175" t="n">
+        <v>12186</v>
       </c>
       <c r="B175" s="2" t="n">
         <v>45089</v>
@@ -16572,17 +16402,16 @@
       <c r="Y175" t="n">
         <v>0</v>
       </c>
-      <c r="Z175" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>13170</t>
-        </is>
+      <c r="A176" t="n">
+        <v>13170</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>45128</v>
@@ -16664,17 +16493,16 @@
       <c r="Y176" t="n">
         <v>0</v>
       </c>
-      <c r="Z176" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>14020</t>
-        </is>
+      <c r="A177" t="n">
+        <v>14020</v>
       </c>
       <c r="B177" s="2" t="n">
         <v>45167</v>
@@ -16754,19 +16582,18 @@
         <v>22</v>
       </c>
       <c r="Y177" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z177" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>14757</t>
-        </is>
+      <c r="A178" t="n">
+        <v>14757</v>
       </c>
       <c r="B178" s="2" t="n">
         <v>45229</v>
@@ -16848,17 +16675,16 @@
       <c r="Y178" t="n">
         <v>0</v>
       </c>
-      <c r="Z178" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>15341</t>
-        </is>
+      <c r="A179" t="n">
+        <v>15341</v>
       </c>
       <c r="B179" s="2" t="n">
         <v>45278</v>
@@ -16938,19 +16764,18 @@
         <v>49</v>
       </c>
       <c r="Y179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA179" t="n">
         <v>1</v>
       </c>
-      <c r="Z179" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
-      </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>15536</t>
-        </is>
+      <c r="A180" t="n">
+        <v>15536</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>45282</v>
@@ -17032,17 +16857,16 @@
       <c r="Y180" t="n">
         <v>0</v>
       </c>
-      <c r="Z180" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>15975</t>
-        </is>
+      <c r="A181" t="n">
+        <v>15975</v>
       </c>
       <c r="B181" s="2" t="n">
         <v>45310</v>
@@ -17124,17 +16948,16 @@
       <c r="Y181" t="n">
         <v>0</v>
       </c>
-      <c r="Z181" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
+      <c r="A182" t="n">
+        <v>123</v>
       </c>
       <c r="B182" s="2" t="n">
         <v>44761</v>
@@ -17214,19 +17037,18 @@
         <v>32</v>
       </c>
       <c r="Y182" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z182" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
+      <c r="A183" t="n">
+        <v>163</v>
       </c>
       <c r="B183" s="2" t="n">
         <v>44768</v>
@@ -17306,19 +17128,18 @@
         <v>32</v>
       </c>
       <c r="Y183" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z183" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
+      <c r="A184" t="n">
+        <v>1200</v>
       </c>
       <c r="B184" s="2" t="n">
         <v>44785</v>
@@ -17400,17 +17221,16 @@
       <c r="Y184" t="n">
         <v>0</v>
       </c>
-      <c r="Z184" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>1236</t>
-        </is>
+      <c r="A185" t="n">
+        <v>1236</v>
       </c>
       <c r="B185" s="2" t="n">
         <v>44805</v>
@@ -17490,19 +17310,18 @@
         <v>22</v>
       </c>
       <c r="Y185" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z185" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>1316</t>
-        </is>
+      <c r="A186" t="n">
+        <v>1316</v>
       </c>
       <c r="B186" s="2" t="n">
         <v>44812</v>
@@ -17584,17 +17403,16 @@
       <c r="Y186" t="n">
         <v>0</v>
       </c>
-      <c r="Z186" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>1383</t>
-        </is>
+      <c r="A187" t="n">
+        <v>1383</v>
       </c>
       <c r="B187" s="2" t="n">
         <v>44820</v>
@@ -17674,19 +17492,18 @@
         <v>34</v>
       </c>
       <c r="Y187" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z187" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>1441</t>
-        </is>
+      <c r="A188" t="n">
+        <v>1441</v>
       </c>
       <c r="B188" s="2" t="n">
         <v>44831</v>
@@ -17766,19 +17583,18 @@
         <v>26</v>
       </c>
       <c r="Y188" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z188" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>1449</t>
-        </is>
+      <c r="A189" t="n">
+        <v>1449</v>
       </c>
       <c r="B189" s="2" t="n">
         <v>44820</v>
@@ -17858,19 +17674,18 @@
         <v>34</v>
       </c>
       <c r="Y189" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z189" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>1477</t>
-        </is>
+      <c r="A190" t="n">
+        <v>1477</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>44838</v>
@@ -17950,19 +17765,18 @@
         <v>35</v>
       </c>
       <c r="Y190" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z190" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>1556</t>
-        </is>
+      <c r="A191" t="n">
+        <v>1556</v>
       </c>
       <c r="B191" s="2" t="n">
         <v>44832</v>
@@ -18044,17 +17858,16 @@
       <c r="Y191" t="n">
         <v>0</v>
       </c>
-      <c r="Z191" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>1669</t>
-        </is>
+      <c r="A192" t="n">
+        <v>1669</v>
       </c>
       <c r="B192" s="2" t="n">
         <v>44902</v>
@@ -18136,17 +17949,16 @@
       <c r="Y192" t="n">
         <v>0</v>
       </c>
-      <c r="Z192" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>1705</t>
-        </is>
+      <c r="A193" t="n">
+        <v>1705</v>
       </c>
       <c r="B193" s="2" t="n">
         <v>44960</v>
@@ -18228,17 +18040,16 @@
       <c r="Y193" t="n">
         <v>0</v>
       </c>
-      <c r="Z193" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>1759</t>
-        </is>
+      <c r="A194" t="n">
+        <v>1759</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>44970</v>
@@ -18320,17 +18131,16 @@
       <c r="Y194" t="n">
         <v>0</v>
       </c>
-      <c r="Z194" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>1777</t>
-        </is>
+      <c r="A195" t="n">
+        <v>1777</v>
       </c>
       <c r="B195" s="2" t="n">
         <v>44988</v>
@@ -18412,17 +18222,16 @@
       <c r="Y195" t="n">
         <v>0</v>
       </c>
-      <c r="Z195" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>11154</t>
-        </is>
+      <c r="A196" t="n">
+        <v>11154</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>45022</v>
@@ -18504,17 +18313,16 @@
       <c r="Y196" t="n">
         <v>0</v>
       </c>
-      <c r="Z196" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>11185</t>
-        </is>
+      <c r="A197" t="n">
+        <v>11185</v>
       </c>
       <c r="B197" s="2" t="n">
         <v>45027</v>
@@ -18594,19 +18402,18 @@
         <v>37</v>
       </c>
       <c r="Y197" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z197" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>11358</t>
-        </is>
+      <c r="A198" t="n">
+        <v>11358</v>
       </c>
       <c r="B198" s="2" t="n">
         <v>45034</v>
@@ -18686,19 +18493,18 @@
         <v>29</v>
       </c>
       <c r="Y198" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z198" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>11438</t>
-        </is>
+      <c r="A199" t="n">
+        <v>11438</v>
       </c>
       <c r="B199" s="2" t="n">
         <v>45041</v>
@@ -18778,19 +18584,18 @@
         <v>30</v>
       </c>
       <c r="Y199" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z199" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>11497</t>
-        </is>
+      <c r="A200" t="n">
+        <v>11497</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>45043</v>
@@ -18870,19 +18675,18 @@
         <v>41</v>
       </c>
       <c r="Y200" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z200" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>11779</t>
-        </is>
+      <c r="A201" t="n">
+        <v>11779</v>
       </c>
       <c r="B201" s="2" t="n">
         <v>45056</v>
@@ -18962,19 +18766,18 @@
         <v>8</v>
       </c>
       <c r="Y201" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z201" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>11806</t>
-        </is>
+      <c r="A202" t="n">
+        <v>11806</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>45062</v>
@@ -19054,19 +18857,18 @@
         <v>42</v>
       </c>
       <c r="Y202" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z202" t="inlineStr">
-        <is>
-          <t>Undefined Cluster</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>11812</t>
-        </is>
+      <c r="A203" t="n">
+        <v>11812</v>
       </c>
       <c r="B203" s="2" t="n">
         <v>45064</v>
@@ -19146,19 +18948,18 @@
         <v>29</v>
       </c>
       <c r="Y203" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z203" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>12031</t>
-        </is>
+      <c r="A204" t="n">
+        <v>12031</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>45082</v>
@@ -19240,17 +19041,16 @@
       <c r="Y204" t="n">
         <v>0</v>
       </c>
-      <c r="Z204" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>12210</t>
-        </is>
+      <c r="A205" t="n">
+        <v>12210</v>
       </c>
       <c r="B205" s="2" t="n">
         <v>45098</v>
@@ -19330,19 +19130,18 @@
         <v>43</v>
       </c>
       <c r="Y205" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z205" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>12873</t>
-        </is>
+      <c r="A206" t="n">
+        <v>12873</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>45103</v>
@@ -19422,19 +19221,18 @@
         <v>40</v>
       </c>
       <c r="Y206" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z206" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>13642</t>
-        </is>
+      <c r="A207" t="n">
+        <v>13642</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>45148</v>
@@ -19516,17 +19314,16 @@
       <c r="Y207" t="n">
         <v>0</v>
       </c>
-      <c r="Z207" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>13665</t>
-        </is>
+      <c r="A208" t="n">
+        <v>13665</v>
       </c>
       <c r="B208" s="2" t="n">
         <v>45154</v>
@@ -19608,17 +19405,16 @@
       <c r="Y208" t="n">
         <v>0</v>
       </c>
-      <c r="Z208" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>13917</t>
-        </is>
+      <c r="A209" t="n">
+        <v>13917</v>
       </c>
       <c r="B209" s="2" t="n">
         <v>45187</v>
@@ -19700,17 +19496,16 @@
       <c r="Y209" t="n">
         <v>0</v>
       </c>
-      <c r="Z209" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>13973</t>
-        </is>
+      <c r="A210" t="n">
+        <v>13973</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>45167</v>
@@ -19790,19 +19585,18 @@
         <v>46</v>
       </c>
       <c r="Y210" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z210" t="inlineStr">
-        <is>
-          <t>High Engagement, High Success</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>14316</t>
-        </is>
+      <c r="A211" t="n">
+        <v>14316</v>
       </c>
       <c r="B211" s="2" t="n">
         <v>45195</v>
@@ -19884,17 +19678,16 @@
       <c r="Y211" t="n">
         <v>0</v>
       </c>
-      <c r="Z211" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>14497</t>
-        </is>
+      <c r="A212" t="n">
+        <v>14497</v>
       </c>
       <c r="B212" s="2" t="n">
         <v>45212</v>
@@ -19976,17 +19769,16 @@
       <c r="Y212" t="n">
         <v>0</v>
       </c>
-      <c r="Z212" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>17370</t>
-        </is>
+      <c r="A213" t="n">
+        <v>17370</v>
       </c>
       <c r="B213" s="2" t="n">
         <v>45440</v>
@@ -20068,10 +19860,11 @@
       <c r="Y213" t="n">
         <v>0</v>
       </c>
-      <c r="Z213" t="inlineStr">
-        <is>
-          <t>Low Engagement, High Success</t>
-        </is>
+      <c r="Z213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/831MarketingAnalytics/Project/831MarketingProject/output/df_cluster.xlsx
+++ b/831MarketingAnalytics/Project/831MarketingProject/output/df_cluster.xlsx
@@ -2383,13 +2383,13 @@
         <v>45</v>
       </c>
       <c r="X21" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y21" t="n">
         <v>2</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.3664921465968582</v>
+        <v>1.366492146596858</v>
       </c>
       <c r="AA21" t="n">
         <v>1</v>
@@ -4749,13 +4749,13 @@
         <v>63</v>
       </c>
       <c r="X47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y47" t="n">
         <v>2</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.3668913595377745</v>
+        <v>1.366891359537775</v>
       </c>
       <c r="AA47" t="n">
         <v>2</v>
@@ -6569,13 +6569,13 @@
         <v>49</v>
       </c>
       <c r="X67" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y67" t="n">
         <v>3</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.3667059799938848</v>
+        <v>1.366705979993885</v>
       </c>
       <c r="AA67" t="n">
         <v>1</v>
@@ -14577,13 +14577,13 @@
         <v>49</v>
       </c>
       <c r="X155" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y155" t="n">
         <v>3</v>
       </c>
       <c r="Z155" t="n">
-        <v>0.3666696989864069</v>
+        <v>1.366669698986407</v>
       </c>
       <c r="AA155" t="n">
         <v>1</v>
@@ -17307,7 +17307,7 @@
         <v>45</v>
       </c>
       <c r="X185" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y185" t="n">
         <v>0</v>
@@ -19673,7 +19673,7 @@
         <v>22</v>
       </c>
       <c r="X211" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y211" t="n">
         <v>0</v>
